--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il19-Il20rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il19-Il20rb.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.696308666666667</v>
+        <v>4.858785666666667</v>
       </c>
       <c r="N2">
-        <v>11.088926</v>
+        <v>14.576357</v>
       </c>
       <c r="O2">
-        <v>0.338734932510532</v>
+        <v>0.383527542896884</v>
       </c>
       <c r="P2">
-        <v>0.338734932510532</v>
+        <v>0.383527542896884</v>
       </c>
       <c r="Q2">
-        <v>0.25188495409</v>
+        <v>0.331101949255</v>
       </c>
       <c r="R2">
-        <v>2.26696458681</v>
+        <v>2.979917543295</v>
       </c>
       <c r="S2">
-        <v>0.338734932510532</v>
+        <v>0.383527542896884</v>
       </c>
       <c r="T2">
-        <v>0.338734932510532</v>
+        <v>0.383527542896884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,13 +626,13 @@
         <v>2.451405666666667</v>
       </c>
       <c r="N3">
-        <v>7.354216999999999</v>
+        <v>7.354217</v>
       </c>
       <c r="O3">
-        <v>0.2246502681290151</v>
+        <v>0.193501351259474</v>
       </c>
       <c r="P3">
-        <v>0.2246502681290151</v>
+        <v>0.193501351259474</v>
       </c>
       <c r="Q3">
         <v>0.167051039155</v>
@@ -641,10 +641,10 @@
         <v>1.503459352395</v>
       </c>
       <c r="S3">
-        <v>0.2246502681290151</v>
+        <v>0.193501351259474</v>
       </c>
       <c r="T3">
-        <v>0.2246502681290151</v>
+        <v>0.193501351259474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8870333333333332</v>
+        <v>0.9922233333333333</v>
       </c>
       <c r="N4">
-        <v>2.6611</v>
+        <v>2.97667</v>
       </c>
       <c r="O4">
-        <v>0.08128898406426163</v>
+        <v>0.07832100511224221</v>
       </c>
       <c r="P4">
-        <v>0.08128898406426165</v>
+        <v>0.07832100511224221</v>
       </c>
       <c r="Q4">
-        <v>0.06044688649999999</v>
+        <v>0.06761505905</v>
       </c>
       <c r="R4">
-        <v>0.5440219784999999</v>
+        <v>0.6085355314500001</v>
       </c>
       <c r="S4">
-        <v>0.08128898406426163</v>
+        <v>0.07832100511224221</v>
       </c>
       <c r="T4">
-        <v>0.08128898406426165</v>
+        <v>0.07832100511224221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8733780000000001</v>
+        <v>0.8999579999999999</v>
       </c>
       <c r="N5">
-        <v>2.620134</v>
+        <v>2.699874</v>
       </c>
       <c r="O5">
-        <v>0.08003759008388642</v>
+        <v>0.07103805438843064</v>
       </c>
       <c r="P5">
-        <v>0.08003759008388642</v>
+        <v>0.07103805438843064</v>
       </c>
       <c r="Q5">
-        <v>0.05951634381</v>
+        <v>0.06132763790999999</v>
       </c>
       <c r="R5">
-        <v>0.53564709429</v>
+        <v>0.55194874119</v>
       </c>
       <c r="S5">
-        <v>0.08003759008388642</v>
+        <v>0.07103805438843064</v>
       </c>
       <c r="T5">
-        <v>0.08003759008388642</v>
+        <v>0.07103805438843064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.587270666666666</v>
+        <v>2.962941666666666</v>
       </c>
       <c r="N6">
-        <v>7.761812</v>
+        <v>8.888824999999999</v>
       </c>
       <c r="O6">
-        <v>0.2371011280965747</v>
+        <v>0.2338793713333444</v>
       </c>
       <c r="P6">
-        <v>0.2371011280965747</v>
+        <v>0.2338793713333444</v>
       </c>
       <c r="Q6">
-        <v>0.17630955958</v>
+        <v>0.201909659875</v>
       </c>
       <c r="R6">
-        <v>1.58678603622</v>
+        <v>1.817186938875</v>
       </c>
       <c r="S6">
-        <v>0.2371011280965747</v>
+        <v>0.2338793713333444</v>
       </c>
       <c r="T6">
-        <v>0.2371011280965747</v>
+        <v>0.2338793713333444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4167013333333333</v>
+        <v>0.5033603333333333</v>
       </c>
       <c r="N7">
-        <v>1.250104</v>
+        <v>1.510081</v>
       </c>
       <c r="O7">
-        <v>0.03818709711573024</v>
+        <v>0.03973267500962479</v>
       </c>
       <c r="P7">
-        <v>0.03818709711573024</v>
+        <v>0.0397326750096248</v>
       </c>
       <c r="Q7">
-        <v>0.02839611236</v>
+        <v>0.034301489915</v>
       </c>
       <c r="R7">
-        <v>0.25556501124</v>
+        <v>0.308713409235</v>
       </c>
       <c r="S7">
-        <v>0.03818709711573024</v>
+        <v>0.03973267500962479</v>
       </c>
       <c r="T7">
-        <v>0.03818709711573024</v>
+        <v>0.0397326750096248</v>
       </c>
     </row>
   </sheetData>
